--- a/ESEPValidador/data/input/PtoLlerasAgostoCajaCopi.xlsx
+++ b/ESEPValidador/data/input/PtoLlerasAgostoCajaCopi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrubios\Documents\.Ejecutables\Correcciones202\08Agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrubios\Documents\.Ejecutables\ESEValidador\ESEPValidador\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C8D39D-D50F-467D-96ED-9F4628417661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C8F27D-FA6E-4BF0-B4BB-829C2FD369F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="720" windowWidth="14610" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PtoLlerasAgostoCajaCopi" sheetId="2" r:id="rId1"/>
@@ -4423,36 +4423,6 @@
   </cellStyles>
   <dxfs count="50">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -4599,6 +4569,36 @@
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4741,20 +4741,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34170E17-5750-49CB-8FAF-2D111B694E4D}" name="PtoLlerasAgostoCajaCopi" displayName="PtoLlerasAgostoCajaCopi" ref="A1:DO35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34170E17-5750-49CB-8FAF-2D111B694E4D}" name="PtoLlerasAgostoCajaCopi" displayName="PtoLlerasAgostoCajaCopi" ref="A1:DO35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:DO35" xr:uid="{34170E17-5750-49CB-8FAF-2D111B694E4D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DO35">
+    <sortCondition ref="B1:B35"/>
+  </sortState>
   <tableColumns count="119">
     <tableColumn id="1" xr3:uid="{9CE3945D-B1AD-432A-8B99-F3234E72628D}" uniqueName="1" name="Tipo de registro" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{2F807AEE-D6FF-4986-B9D7-2C1335AD90FF}" uniqueName="2" name="Consecutivo de registro" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{98BD5A8A-E0F6-4260-9AB4-E637C4C28094}" uniqueName="3" name="Código de habilitación IPS primaria" queryTableFieldId="3" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{AFC69D8C-87FA-474D-87C6-A4F8DA7929C9}" uniqueName="4" name="Tipo de identificación del usuario" queryTableFieldId="4" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{98BD5A8A-E0F6-4260-9AB4-E637C4C28094}" uniqueName="3" name="Código de habilitación IPS primaria" queryTableFieldId="3" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{AFC69D8C-87FA-474D-87C6-A4F8DA7929C9}" uniqueName="4" name="Tipo de identificación del usuario" queryTableFieldId="4" dataDxfId="47"/>
     <tableColumn id="5" xr3:uid="{7A829AB4-696B-4839-8C0D-1E6059A7E9D3}" uniqueName="5" name="Número de identificación del usuario" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{9EB00C1F-7C05-42A9-8069-491137123658}" uniqueName="6" name="Primer apellido del usuario" queryTableFieldId="6" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{ACF14BE1-3E60-4BDD-9397-3F7E39DED4BF}" uniqueName="7" name="Segundo apellido del usuario " queryTableFieldId="7" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{DB2214BA-412A-46BF-9AE5-6A2BFBEC3122}" uniqueName="8" name="Primer nombre del usuario " queryTableFieldId="8" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{731C2778-64E0-449B-8A16-B40C54106073}" uniqueName="9" name="Segundo nombre del usuario " queryTableFieldId="9" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{9C48E4F8-5253-4D9B-ABAD-BB5A227F57D0}" uniqueName="10" name="Fecha de Nacimiento" queryTableFieldId="10" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{C30D7642-CA6B-4EDE-A0FF-8EA11C3C01EC}" uniqueName="11" name="Sexo" queryTableFieldId="11" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{9EB00C1F-7C05-42A9-8069-491137123658}" uniqueName="6" name="Primer apellido del usuario" queryTableFieldId="6" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{ACF14BE1-3E60-4BDD-9397-3F7E39DED4BF}" uniqueName="7" name="Segundo apellido del usuario " queryTableFieldId="7" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{DB2214BA-412A-46BF-9AE5-6A2BFBEC3122}" uniqueName="8" name="Primer nombre del usuario " queryTableFieldId="8" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{731C2778-64E0-449B-8A16-B40C54106073}" uniqueName="9" name="Segundo nombre del usuario " queryTableFieldId="9" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{9C48E4F8-5253-4D9B-ABAD-BB5A227F57D0}" uniqueName="10" name="Fecha de Nacimiento" queryTableFieldId="10" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{C30D7642-CA6B-4EDE-A0FF-8EA11C3C01EC}" uniqueName="11" name="Sexo" queryTableFieldId="11" dataDxfId="41"/>
     <tableColumn id="12" xr3:uid="{D26B218D-824E-446E-A0DB-DA518DB7390E}" uniqueName="12" name="Código pertenencia étnica" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{E036EEB3-8DB9-455F-A5AA-DEBFE6CC086E}" uniqueName="13" name="Código de ocupación (toda la población)" queryTableFieldId="13"/>
     <tableColumn id="14" xr3:uid="{389ABD7B-470C-47CB-A392-565E67EDB186}" uniqueName="14" name="Código de nivel educativo (toda la población)" queryTableFieldId="14"/>
@@ -4773,11 +4776,11 @@
     <tableColumn id="27" xr3:uid="{A8549375-F088-4485-A106-E35EBD68DD28}" uniqueName="27" name="Cáncer de Cérvix" queryTableFieldId="27"/>
     <tableColumn id="28" xr3:uid="{B906C2FD-44BE-4350-81E3-55664FE29718}" uniqueName="28" name="Agudeza visual lejana ojo izquierdo " queryTableFieldId="28"/>
     <tableColumn id="29" xr3:uid="{4D569D37-A258-46CE-9906-250C921F1D3F}" uniqueName="29" name="Agudeza visual lejana ojo derecho " queryTableFieldId="29"/>
-    <tableColumn id="30" xr3:uid="{AECCF721-026A-4E8A-9492-A70F39CB7DDC}" uniqueName="30" name="Fecha del peso _x000a_(Toda la población)" queryTableFieldId="30" dataDxfId="41"/>
+    <tableColumn id="30" xr3:uid="{AECCF721-026A-4E8A-9492-A70F39CB7DDC}" uniqueName="30" name="Fecha del peso _x000a_(Toda la población)" queryTableFieldId="30" dataDxfId="40"/>
     <tableColumn id="31" xr3:uid="{F8CE92A7-6085-41ED-993A-39CC5FAA0413}" uniqueName="31" name="Peso en Kilogramos _x000a_(Toda la población)" queryTableFieldId="31"/>
-    <tableColumn id="32" xr3:uid="{4008E62B-62DF-4856-AC06-3290201938BA}" uniqueName="32" name="Fecha de la talla _x000a_(Toda la población)" queryTableFieldId="32" dataDxfId="40"/>
+    <tableColumn id="32" xr3:uid="{4008E62B-62DF-4856-AC06-3290201938BA}" uniqueName="32" name="Fecha de la talla _x000a_(Toda la población)" queryTableFieldId="32" dataDxfId="39"/>
     <tableColumn id="33" xr3:uid="{79AF7E57-CC49-4FB2-964B-87EC986EA531}" uniqueName="33" name="Talla en centímetros _x000a_(Toda la población)" queryTableFieldId="33"/>
-    <tableColumn id="34" xr3:uid="{EBCBA6C8-6B24-49E9-95CD-86C6DB12BD9A}" uniqueName="34" name="Fecha probable de parto" queryTableFieldId="34" dataDxfId="39"/>
+    <tableColumn id="34" xr3:uid="{EBCBA6C8-6B24-49E9-95CD-86C6DB12BD9A}" uniqueName="34" name="Fecha probable de parto" queryTableFieldId="34" dataDxfId="38"/>
     <tableColumn id="35" xr3:uid="{680DC64C-B7CE-44D1-A8FB-3A56DE4087CD}" uniqueName="35" name="Código país" queryTableFieldId="35"/>
     <tableColumn id="36" xr3:uid="{CC56A3D0-A4E1-4F0A-9470-1E22BF7F1088}" uniqueName="36" name="Clasificación del riesgo gestacional" queryTableFieldId="36"/>
     <tableColumn id="37" xr3:uid="{8FB05072-EDFC-47B3-8701-38725DE73D63}" uniqueName="37" name="Resultado de colonoscopia tamizaje" queryTableFieldId="37"/>
@@ -4793,76 +4796,76 @@
     <tableColumn id="47" xr3:uid="{8B7C73ED-41E8-4617-9D8D-F63EE4FBC691}" uniqueName="47" name="Resultado de escala abreviada de desarrollo área de motricidad audición lenguaje" queryTableFieldId="47"/>
     <tableColumn id="48" xr3:uid="{7634A85E-CAD8-4F66-8847-A3386C33C7E7}" uniqueName="48" name="Tratamiento ablativo o de escisión posterior a la realización de la técnica de inspección visual (Crioterapia o LETZ)" queryTableFieldId="48"/>
     <tableColumn id="49" xr3:uid="{AA1204A5-9239-46AB-BCBB-1112F02E941E}" uniqueName="49" name="Resultado de tamización con oximetría pre y post ductal" queryTableFieldId="49"/>
-    <tableColumn id="50" xr3:uid="{594384A6-954D-4015-B438-B30FFDF2E573}" uniqueName="50" name="Fecha de atención parto o cesárea" queryTableFieldId="50" dataDxfId="38"/>
-    <tableColumn id="51" xr3:uid="{0D83DF22-147B-4469-AF5C-1F5C06A83434}" uniqueName="51" name="Fecha de salida de atención parto o cesárea" queryTableFieldId="51" dataDxfId="37"/>
-    <tableColumn id="52" xr3:uid="{33FE27F1-1089-4B0B-BC07-994849B2C0C6}" uniqueName="52" name="Fecha de atención en salud para la promoción y apoyo de la lactancia materna" queryTableFieldId="52" dataDxfId="36"/>
-    <tableColumn id="53" xr3:uid="{3C55E80E-7F65-4C71-A2A4-AB30482873B6}" uniqueName="53" name="Fecha de consulta de valoración integral" queryTableFieldId="53" dataDxfId="35"/>
-    <tableColumn id="54" xr3:uid="{6A2B6400-C0F8-454E-A580-65642113FE73}" uniqueName="54" name="Fecha de atención en salud para la asesoría en anticoncepción_x000a_" queryTableFieldId="54" dataDxfId="34"/>
+    <tableColumn id="50" xr3:uid="{594384A6-954D-4015-B438-B30FFDF2E573}" uniqueName="50" name="Fecha de atención parto o cesárea" queryTableFieldId="50" dataDxfId="37"/>
+    <tableColumn id="51" xr3:uid="{0D83DF22-147B-4469-AF5C-1F5C06A83434}" uniqueName="51" name="Fecha de salida de atención parto o cesárea" queryTableFieldId="51" dataDxfId="36"/>
+    <tableColumn id="52" xr3:uid="{33FE27F1-1089-4B0B-BC07-994849B2C0C6}" uniqueName="52" name="Fecha de atención en salud para la promoción y apoyo de la lactancia materna" queryTableFieldId="52" dataDxfId="35"/>
+    <tableColumn id="53" xr3:uid="{3C55E80E-7F65-4C71-A2A4-AB30482873B6}" uniqueName="53" name="Fecha de consulta de valoración integral" queryTableFieldId="53" dataDxfId="34"/>
+    <tableColumn id="54" xr3:uid="{6A2B6400-C0F8-454E-A580-65642113FE73}" uniqueName="54" name="Fecha de atención en salud para la asesoría en anticoncepción_x000a_" queryTableFieldId="54" dataDxfId="33"/>
     <tableColumn id="55" xr3:uid="{75AEFBF2-67B7-4F83-8F16-CE15FA5F8876}" uniqueName="55" name="Suministro de método anticonceptivo" queryTableFieldId="55"/>
-    <tableColumn id="56" xr3:uid="{0EF8FEAF-1478-4859-B007-76532E9539D0}" uniqueName="56" name="Fecha de suministro de método anticonceptivo" queryTableFieldId="56" dataDxfId="33"/>
-    <tableColumn id="57" xr3:uid="{19839A91-9F77-4F1A-8E67-5AB48D75FA29}" uniqueName="57" name="Fecha de primera consulta prenatal" queryTableFieldId="57" dataDxfId="32"/>
+    <tableColumn id="56" xr3:uid="{0EF8FEAF-1478-4859-B007-76532E9539D0}" uniqueName="56" name="Fecha de suministro de método anticonceptivo" queryTableFieldId="56" dataDxfId="32"/>
+    <tableColumn id="57" xr3:uid="{19839A91-9F77-4F1A-8E67-5AB48D75FA29}" uniqueName="57" name="Fecha de primera consulta prenatal" queryTableFieldId="57" dataDxfId="31"/>
     <tableColumn id="58" xr3:uid="{787D9804-8D53-440C-8BA6-472F70EE1DC1}" uniqueName="58" name="Resultado de glicemia basal" queryTableFieldId="58"/>
-    <tableColumn id="59" xr3:uid="{C8029370-DFC3-4A52-B3EF-817BA5A4618C}" uniqueName="59" name="Fecha de último control prenatal de seguimiento" queryTableFieldId="59" dataDxfId="31"/>
+    <tableColumn id="59" xr3:uid="{C8029370-DFC3-4A52-B3EF-817BA5A4618C}" uniqueName="59" name="Fecha de último control prenatal de seguimiento" queryTableFieldId="59" dataDxfId="30"/>
     <tableColumn id="60" xr3:uid="{3E44EC93-CB7B-4D62-B9C8-75D355A0E77C}" uniqueName="60" name="Suministro de ácido fólico en el control prenatal durante el periodo reportado" queryTableFieldId="60"/>
     <tableColumn id="61" xr3:uid="{4D181509-E031-4BA9-9013-DEBEE3A3D3ED}" uniqueName="61" name="Suministro de sulfato ferroso en el control prenatal durante el periodo reportado" queryTableFieldId="61"/>
     <tableColumn id="62" xr3:uid="{04204B10-728D-4C3A-BD82-5CE7C39B2670}" uniqueName="62" name="Suministro de carbonato de calcio en el control prenatal durante el periodo reportado" queryTableFieldId="62"/>
-    <tableColumn id="63" xr3:uid="{38979ED7-4DC4-4FDF-BE67-48BE0A707CF0}" uniqueName="63" name="Fecha de valoración agudeza visual" queryTableFieldId="63" dataDxfId="30"/>
-    <tableColumn id="64" xr3:uid="{7A397AAD-BF87-4C33-B24A-78569BCFFF63}" uniqueName="64" name="Fecha de tamizaje VALE" queryTableFieldId="64" dataDxfId="29"/>
-    <tableColumn id="65" xr3:uid="{8AFD6019-1A9E-45FE-AA0D-3C690C96B217}" uniqueName="65" name="Fecha del tacto rectal" queryTableFieldId="65" dataDxfId="28"/>
-    <tableColumn id="66" xr3:uid="{6ED7C52B-3701-41F7-9EE3-BC7546F41CFD}" uniqueName="66" name="Fecha de tamización con oximetría pre y post ductal" queryTableFieldId="66" dataDxfId="27"/>
-    <tableColumn id="67" xr3:uid="{679612F9-4121-4235-B0E1-7B3E30CBFB5D}" uniqueName="67" name="Fecha de realización colonoscopia tamizaje" queryTableFieldId="67" dataDxfId="26"/>
-    <tableColumn id="68" xr3:uid="{B5111B8E-6810-4BB9-8E25-1F560507BDDE}" uniqueName="68" name="Fecha de la prueba sangre oculta en materia fecal (tamizaje Ca de colon)" queryTableFieldId="68" dataDxfId="25"/>
-    <tableColumn id="69" xr3:uid="{FBD71CFB-3B2C-4C39-97E3-A57FFFB8415B}" uniqueName="69" name="Consulta de Psicología" queryTableFieldId="69" dataDxfId="24"/>
-    <tableColumn id="70" xr3:uid="{19B6D960-BB79-429F-8840-F55E3589DF66}" uniqueName="70" name="Fecha de tamizaje auditivo neonatal" queryTableFieldId="70" dataDxfId="23"/>
+    <tableColumn id="63" xr3:uid="{38979ED7-4DC4-4FDF-BE67-48BE0A707CF0}" uniqueName="63" name="Fecha de valoración agudeza visual" queryTableFieldId="63" dataDxfId="29"/>
+    <tableColumn id="64" xr3:uid="{7A397AAD-BF87-4C33-B24A-78569BCFFF63}" uniqueName="64" name="Fecha de tamizaje VALE" queryTableFieldId="64" dataDxfId="28"/>
+    <tableColumn id="65" xr3:uid="{8AFD6019-1A9E-45FE-AA0D-3C690C96B217}" uniqueName="65" name="Fecha del tacto rectal" queryTableFieldId="65" dataDxfId="27"/>
+    <tableColumn id="66" xr3:uid="{6ED7C52B-3701-41F7-9EE3-BC7546F41CFD}" uniqueName="66" name="Fecha de tamización con oximetría pre y post ductal" queryTableFieldId="66" dataDxfId="26"/>
+    <tableColumn id="67" xr3:uid="{679612F9-4121-4235-B0E1-7B3E30CBFB5D}" uniqueName="67" name="Fecha de realización colonoscopia tamizaje" queryTableFieldId="67" dataDxfId="25"/>
+    <tableColumn id="68" xr3:uid="{B5111B8E-6810-4BB9-8E25-1F560507BDDE}" uniqueName="68" name="Fecha de la prueba sangre oculta en materia fecal (tamizaje Ca de colon)" queryTableFieldId="68" dataDxfId="24"/>
+    <tableColumn id="69" xr3:uid="{FBD71CFB-3B2C-4C39-97E3-A57FFFB8415B}" uniqueName="69" name="Consulta de Psicología" queryTableFieldId="69" dataDxfId="23"/>
+    <tableColumn id="70" xr3:uid="{19B6D960-BB79-429F-8840-F55E3589DF66}" uniqueName="70" name="Fecha de tamizaje auditivo neonatal" queryTableFieldId="70" dataDxfId="22"/>
     <tableColumn id="71" xr3:uid="{56B05D1C-DEEC-410A-BDD8-490DA94E9AB8}" uniqueName="71" name="Suministro de  fortificación casera en la primera infancia (6 a 23 meses)" queryTableFieldId="71"/>
     <tableColumn id="72" xr3:uid="{FA9B19C4-3EF6-4ABD-B8E0-B5AD47F64E6B}" uniqueName="72" name="Suministro de vitamina A en la primera infancia (24 a 60 meses)" queryTableFieldId="72"/>
-    <tableColumn id="73" xr3:uid="{E4D452C7-32A6-42BB-BEC3-AB2ACE78E76A}" uniqueName="73" name="Fecha de toma LDL" queryTableFieldId="73" dataDxfId="22"/>
-    <tableColumn id="74" xr3:uid="{D8BB6F66-03B8-44D6-8625-F4A200B49283}" uniqueName="74" name="Fecha de toma PSA" queryTableFieldId="74" dataDxfId="21"/>
+    <tableColumn id="73" xr3:uid="{E4D452C7-32A6-42BB-BEC3-AB2ACE78E76A}" uniqueName="73" name="Fecha de toma LDL" queryTableFieldId="73" dataDxfId="21"/>
+    <tableColumn id="74" xr3:uid="{D8BB6F66-03B8-44D6-8625-F4A200B49283}" uniqueName="74" name="Fecha de toma PSA" queryTableFieldId="74" dataDxfId="20"/>
     <tableColumn id="75" xr3:uid="{CCD93705-5014-4866-8A65-03E004B7ED2D}" uniqueName="75" name="Preservativos entregados a pacientes con ITS" queryTableFieldId="75"/>
-    <tableColumn id="76" xr3:uid="{E3CE808C-FEC6-41C4-B12E-DC4E07634227}" uniqueName="76" name="Fecha de tamizaje visual neonatal" queryTableFieldId="76" dataDxfId="20"/>
-    <tableColumn id="77" xr3:uid="{7D83D4E7-059E-4EF9-9111-BE2D441ED7C9}" uniqueName="77" name="Fecha de atención en salud bucal por profesional en odontología" queryTableFieldId="77" dataDxfId="19"/>
+    <tableColumn id="76" xr3:uid="{E3CE808C-FEC6-41C4-B12E-DC4E07634227}" uniqueName="76" name="Fecha de tamizaje visual neonatal" queryTableFieldId="76" dataDxfId="19"/>
+    <tableColumn id="77" xr3:uid="{7D83D4E7-059E-4EF9-9111-BE2D441ED7C9}" uniqueName="77" name="Fecha de atención en salud bucal por profesional en odontología" queryTableFieldId="77" dataDxfId="18"/>
     <tableColumn id="78" xr3:uid="{5904FAB1-75A5-42AE-83A4-9CE62E75B719}" uniqueName="78" name="Suministro de hierro en la primera Infancia (24 a 59 meses)" queryTableFieldId="78"/>
-    <tableColumn id="79" xr3:uid="{7E846D4B-6A33-42A7-8BEF-59E8FD1F968D}" uniqueName="79" name="Fecha de antígeno de superficie hepatitis B (Toda la población)" queryTableFieldId="79" dataDxfId="18"/>
+    <tableColumn id="79" xr3:uid="{7E846D4B-6A33-42A7-8BEF-59E8FD1F968D}" uniqueName="79" name="Fecha de antígeno de superficie hepatitis B (Toda la población)" queryTableFieldId="79" dataDxfId="17"/>
     <tableColumn id="80" xr3:uid="{D6F30594-7FCC-46A6-8B58-7755D3330D47}" uniqueName="80" name="Resultado de antígeno de superficie hepatitis B (Toda la población)" queryTableFieldId="80"/>
-    <tableColumn id="81" xr3:uid="{D4CE679D-6CCB-4744-BE0B-B295A906350C}" uniqueName="81" name="Fecha de toma de prueba tamizaje para sífilis" queryTableFieldId="81" dataDxfId="17"/>
+    <tableColumn id="81" xr3:uid="{D4CE679D-6CCB-4744-BE0B-B295A906350C}" uniqueName="81" name="Fecha de toma de prueba tamizaje para sífilis" queryTableFieldId="81" dataDxfId="16"/>
     <tableColumn id="82" xr3:uid="{4D579113-F30C-4450-94DD-9F197D37D11C}" uniqueName="82" name="Resultado de prueba tamizaje para sífilis" queryTableFieldId="82"/>
-    <tableColumn id="83" xr3:uid="{9198D51D-EBA9-415E-A062-4C9C54926EFD}" uniqueName="83" name="Fecha de toma de prueba para VIH" queryTableFieldId="83" dataDxfId="16"/>
+    <tableColumn id="83" xr3:uid="{9198D51D-EBA9-415E-A062-4C9C54926EFD}" uniqueName="83" name="Fecha de toma de prueba para VIH" queryTableFieldId="83" dataDxfId="15"/>
     <tableColumn id="84" xr3:uid="{875C8398-FABA-4BA2-99D9-DC6305FF163F}" uniqueName="84" name="Resultado de prueba para VIH" queryTableFieldId="84"/>
-    <tableColumn id="85" xr3:uid="{2B6A8F61-B99E-4F95-9186-0C95586A2F7A}" uniqueName="85" name="Fecha de TSH neonatal" queryTableFieldId="85" dataDxfId="15"/>
+    <tableColumn id="85" xr3:uid="{2B6A8F61-B99E-4F95-9186-0C95586A2F7A}" uniqueName="85" name="Fecha de TSH neonatal" queryTableFieldId="85" dataDxfId="14"/>
     <tableColumn id="86" xr3:uid="{8AE9B863-A038-4E0A-87AD-A74B38B0EF7C}" uniqueName="86" name="Resultado de TSH neonatal" queryTableFieldId="86"/>
     <tableColumn id="87" xr3:uid="{387D4143-A2D0-4787-BC9F-2365AF4DB4F3}" uniqueName="87" name="Tamizaje del cáncer de cuello uterino " queryTableFieldId="87"/>
-    <tableColumn id="88" xr3:uid="{F32E946D-5335-4F47-833E-5A6A1C8BDBCB}" uniqueName="88" name="Fecha de tamizaje cáncer de cuello uterino" queryTableFieldId="88" dataDxfId="14"/>
+    <tableColumn id="88" xr3:uid="{F32E946D-5335-4F47-833E-5A6A1C8BDBCB}" uniqueName="88" name="Fecha de tamizaje cáncer de cuello uterino" queryTableFieldId="88" dataDxfId="13"/>
     <tableColumn id="89" xr3:uid="{044DEFFF-4193-4E1D-B388-A99165EA4045}" uniqueName="89" name="Resultado tamizaje cáncer de cuello uterino" queryTableFieldId="89"/>
     <tableColumn id="90" xr3:uid="{FBBD1B1F-60BE-4181-BBDD-85A1F929BADA}" uniqueName="90" name="Calidad en la muestra de citología cervicouterina" queryTableFieldId="90"/>
     <tableColumn id="91" xr3:uid="{01DCB80C-E81D-467D-B80D-C1F4C2BAEDC8}" uniqueName="91" name="Código de habilitación IPS donde se realiza  tamizaje cáncer de cuello uterino" queryTableFieldId="91"/>
-    <tableColumn id="92" xr3:uid="{95FD7C8F-64CA-4B7E-AEC1-E18DE8279C79}" uniqueName="92" name="Fecha de colposcopia" queryTableFieldId="92" dataDxfId="13"/>
+    <tableColumn id="92" xr3:uid="{95FD7C8F-64CA-4B7E-AEC1-E18DE8279C79}" uniqueName="92" name="Fecha de colposcopia" queryTableFieldId="92" dataDxfId="12"/>
     <tableColumn id="93" xr3:uid="{054DC6DA-9B66-4C8F-AE99-45B5F8110E32}" uniqueName="93" name="Resultado de LDL" queryTableFieldId="93"/>
-    <tableColumn id="94" xr3:uid="{7DE5BBED-25E7-464D-AC18-AEAAE23BB3EC}" uniqueName="94" name="Fecha de biopsia cervicouterina" queryTableFieldId="94" dataDxfId="12"/>
+    <tableColumn id="94" xr3:uid="{7DE5BBED-25E7-464D-AC18-AEAAE23BB3EC}" uniqueName="94" name="Fecha de biopsia cervicouterina" queryTableFieldId="94" dataDxfId="11"/>
     <tableColumn id="95" xr3:uid="{9E5FA16F-AF2C-4CB0-AC1E-E0022EF5448D}" uniqueName="95" name="Resultado de biopsia cervicouterina" queryTableFieldId="95"/>
     <tableColumn id="96" xr3:uid="{7136F343-2362-498C-8965-5D9A037A7FCE}" uniqueName="96" name="Resultado de HDL" queryTableFieldId="96"/>
-    <tableColumn id="97" xr3:uid="{383FFD7A-1369-4F5C-9B1A-E31E45A56164}" uniqueName="97" name="Fecha de toma de mamografía" queryTableFieldId="97" dataDxfId="11"/>
+    <tableColumn id="97" xr3:uid="{383FFD7A-1369-4F5C-9B1A-E31E45A56164}" uniqueName="97" name="Fecha de toma de mamografía" queryTableFieldId="97" dataDxfId="10"/>
     <tableColumn id="98" xr3:uid="{0D844C2F-86D2-40B7-824B-B87247058A37}" uniqueName="98" name="Resultado de mamografía" queryTableFieldId="98"/>
     <tableColumn id="99" xr3:uid="{968429F9-5DA6-48D5-847A-8B6B49BCB4E2}" uniqueName="99" name="Resultado de triglicéridos" queryTableFieldId="99"/>
-    <tableColumn id="100" xr3:uid="{2216BA3A-6B56-4517-BEB0-8FB922780308}" uniqueName="100" name="Fecha de toma biopsia de mama" queryTableFieldId="100" dataDxfId="10"/>
-    <tableColumn id="101" xr3:uid="{36C8C5C4-C965-46D5-8604-75EAD0795B47}" uniqueName="101" name="Fecha de resultado biopsia de mama" queryTableFieldId="101" dataDxfId="9"/>
+    <tableColumn id="100" xr3:uid="{2216BA3A-6B56-4517-BEB0-8FB922780308}" uniqueName="100" name="Fecha de toma biopsia de mama" queryTableFieldId="100" dataDxfId="9"/>
+    <tableColumn id="101" xr3:uid="{36C8C5C4-C965-46D5-8604-75EAD0795B47}" uniqueName="101" name="Fecha de resultado biopsia de mama" queryTableFieldId="101" dataDxfId="8"/>
     <tableColumn id="102" xr3:uid="{3D07A583-AAAF-40F5-B939-4B92F81EBCA2}" uniqueName="102" name="Resultado de biopsia de mama" queryTableFieldId="102"/>
     <tableColumn id="103" xr3:uid="{EA440915-6D10-4ABE-869A-A44341E99B47}" uniqueName="103" name="COP por persona" queryTableFieldId="103"/>
-    <tableColumn id="104" xr3:uid="{B27516EF-207E-4EB3-9650-3832B31D2AD9}" uniqueName="104" name="Fecha de toma hemoglobina" queryTableFieldId="104" dataDxfId="8"/>
+    <tableColumn id="104" xr3:uid="{B27516EF-207E-4EB3-9650-3832B31D2AD9}" uniqueName="104" name="Fecha de toma hemoglobina" queryTableFieldId="104" dataDxfId="7"/>
     <tableColumn id="105" xr3:uid="{2B494BB8-0E7D-4FAC-BAE8-CC56F85BF571}" uniqueName="105" name="Resultado de hemoglobina" queryTableFieldId="105"/>
-    <tableColumn id="106" xr3:uid="{D12734A1-98D4-443D-AFD1-3F342D1422A5}" uniqueName="106" name="Fecha de toma glicemia basal" queryTableFieldId="106" dataDxfId="7"/>
-    <tableColumn id="107" xr3:uid="{2D4EA391-3380-44FF-9EB3-A6AD38AE25BF}" uniqueName="107" name="Fecha de toma creatinina" queryTableFieldId="107" dataDxfId="6"/>
+    <tableColumn id="106" xr3:uid="{D12734A1-98D4-443D-AFD1-3F342D1422A5}" uniqueName="106" name="Fecha de toma glicemia basal" queryTableFieldId="106" dataDxfId="6"/>
+    <tableColumn id="107" xr3:uid="{2D4EA391-3380-44FF-9EB3-A6AD38AE25BF}" uniqueName="107" name="Fecha de toma creatinina" queryTableFieldId="107" dataDxfId="5"/>
     <tableColumn id="108" xr3:uid="{0FCD52BF-0ADE-46A2-8EDE-7A7355101EC5}" uniqueName="108" name="Resultado de creatinina" queryTableFieldId="108"/>
-    <tableColumn id="109" xr3:uid="{D1891E4E-942A-4C92-9453-A2AE123CB143}" uniqueName="109" name="Preservativos entregados a pacientes con ITS2" queryTableFieldId="109" dataDxfId="5"/>
+    <tableColumn id="109" xr3:uid="{D1891E4E-942A-4C92-9453-A2AE123CB143}" uniqueName="109" name="Preservativos entregados a pacientes con ITS2" queryTableFieldId="109" dataDxfId="4"/>
     <tableColumn id="110" xr3:uid="{47A7AEC6-9E26-4CA4-8F05-F0013731C0E5}" uniqueName="110" name="Resultado de PSA" queryTableFieldId="110"/>
-    <tableColumn id="111" xr3:uid="{02376A03-AA7E-4B51-9C35-C17F09EC3FE6}" uniqueName="111" name="Fecha de toma  de tamizaje hepatitis C" queryTableFieldId="111" dataDxfId="4"/>
-    <tableColumn id="112" xr3:uid="{B202D36A-AD33-4BDE-884B-3F305A5E3D13}" uniqueName="112" name="Fecha de toma HDL" queryTableFieldId="112" dataDxfId="3"/>
-    <tableColumn id="113" xr3:uid="{0AAA130B-FB1C-4679-8B22-E842197A4066}" uniqueName="113" name="Fecha de toma de baciloscopia diagnóstico" queryTableFieldId="113" dataDxfId="2"/>
+    <tableColumn id="111" xr3:uid="{02376A03-AA7E-4B51-9C35-C17F09EC3FE6}" uniqueName="111" name="Fecha de toma  de tamizaje hepatitis C" queryTableFieldId="111" dataDxfId="3"/>
+    <tableColumn id="112" xr3:uid="{B202D36A-AD33-4BDE-884B-3F305A5E3D13}" uniqueName="112" name="Fecha de toma HDL" queryTableFieldId="112" dataDxfId="2"/>
+    <tableColumn id="113" xr3:uid="{0AAA130B-FB1C-4679-8B22-E842197A4066}" uniqueName="113" name="Fecha de toma de baciloscopia diagnóstico" queryTableFieldId="113" dataDxfId="1"/>
     <tableColumn id="114" xr3:uid="{D443C43D-B7F1-4647-BA62-285D253FF6AA}" uniqueName="114" name="Resultado de baciloscopia diagnóstico" queryTableFieldId="114"/>
     <tableColumn id="115" xr3:uid="{C5DB6589-6204-46E6-8A3C-4B4893DBAE50}" uniqueName="115" name="Clasificación del riesgo cardiovascular" queryTableFieldId="115"/>
     <tableColumn id="116" xr3:uid="{BA1B837D-43DB-4808-925E-3CA350140F55}" uniqueName="116" name="Tratamiento para sífilis gestacional" queryTableFieldId="116"/>
     <tableColumn id="117" xr3:uid="{51E1E913-D30E-4A79-B694-CF1BBBE0D879}" uniqueName="117" name="Tratamiento para Sífilis Congénita" queryTableFieldId="117"/>
     <tableColumn id="118" xr3:uid="{A61B3A77-92DB-4996-971C-EBAA3AC99481}" uniqueName="118" name="Clasificación del riesgo metabólico" queryTableFieldId="118"/>
-    <tableColumn id="119" xr3:uid="{D4CD5645-A77D-4B90-B280-5FD1EA7E2D38}" uniqueName="119" name="Fecha de toma triglicéridos" queryTableFieldId="119" dataDxfId="1"/>
+    <tableColumn id="119" xr3:uid="{D4CD5645-A77D-4B90-B280-5FD1EA7E2D38}" uniqueName="119" name="Fecha de toma triglicéridos" queryTableFieldId="119" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5134,7 +5137,7 @@
   <dimension ref="A1:DO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:DO1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5513,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>505770063427</v>
@@ -5872,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>505770063427</v>
@@ -6231,7 +6234,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>505770063427</v>
@@ -6590,7 +6593,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1064</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>505770063427</v>
@@ -6949,7 +6952,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1274</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
         <v>505770063427</v>
@@ -7308,7 +7311,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>1441</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>505770063427</v>
@@ -7667,7 +7670,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1561</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>505770063427</v>
@@ -8026,7 +8029,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>1597</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>505770063427</v>
@@ -8385,7 +8388,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>1793</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>505770063427</v>
@@ -8744,7 +8747,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>1969</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
         <v>505770063427</v>
@@ -9103,7 +9106,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>1972</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>505770063427</v>
@@ -9462,7 +9465,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>1980</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
         <v>505770063427</v>
@@ -9821,7 +9824,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>2612</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
         <v>505770063427</v>
@@ -10180,7 +10183,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>3017</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>505770063427</v>
@@ -10539,7 +10542,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>3040</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>505770063427</v>
@@ -10898,7 +10901,7 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>3579</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3">
         <v>505770063427</v>
@@ -11257,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>3600</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>505770063427</v>
@@ -11616,7 +11619,7 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>3873</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <v>505770063427</v>
@@ -11975,7 +11978,7 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>4083</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3">
         <v>505770063427</v>
@@ -12334,7 +12337,7 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>4505</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3">
         <v>505770063427</v>
@@ -12693,7 +12696,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>4552</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3">
         <v>505770063427</v>
@@ -13052,7 +13055,7 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>4891</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3">
         <v>505770063427</v>
@@ -13411,7 +13414,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>5021</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3">
         <v>505770063427</v>
@@ -13770,7 +13773,7 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>5267</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3">
         <v>505770063427</v>
@@ -14129,7 +14132,7 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>5286</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3">
         <v>505770063427</v>
@@ -14488,7 +14491,7 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>5443</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3">
         <v>505770063427</v>
@@ -14847,7 +14850,7 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>5486</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3">
         <v>505770063427</v>
@@ -15206,7 +15209,7 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>5487</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3">
         <v>505770063427</v>
@@ -15565,7 +15568,7 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>5490</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3">
         <v>505770063427</v>
@@ -15924,7 +15927,7 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>5494</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3">
         <v>505770063427</v>
@@ -16283,7 +16286,7 @@
         <v>2</v>
       </c>
       <c r="B32">
-        <v>5496</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>505770063427</v>
@@ -16642,7 +16645,7 @@
         <v>2</v>
       </c>
       <c r="B33">
-        <v>5501</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3">
         <v>505770063427</v>
@@ -17001,7 +17004,7 @@
         <v>2</v>
       </c>
       <c r="B34">
-        <v>5502</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3">
         <v>505770063427</v>
@@ -17360,7 +17363,7 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>5504</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3">
         <v>505770063427</v>
